--- a/src/Web/static/reports/AtlasTour_InvoiceTemplate.xlsx
+++ b/src/Web/static/reports/AtlasTour_InvoiceTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\Web\static\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429A2B87-1E80-4376-80BB-BFC1486DA0F4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DD3044-D502-42A9-A095-FEDE461EA5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Постачальник</t>
   </si>
@@ -128,10 +128,6 @@
   </si>
   <si>
     <t>[[Totals.Title]]</t>
-  </si>
-  <si>
-    <t>Увага!
-Зміна реквізитів !</t>
   </si>
   <si>
     <t>Виписав(ла):  _____________   [[IssuedBy]]</t>
@@ -447,46 +443,46 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -770,7 +766,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -786,27 +782,25 @@
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+    </row>
+    <row r="2" spans="1:11" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="C2" s="24"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -820,106 +814,106 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="13" spans="1:11" s="11" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33" t="s">
+      <c r="J13" s="34"/>
+      <c r="K13" s="35" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="19" t="s">
         <v>26</v>
       </c>
@@ -929,16 +923,16 @@
       <c r="J14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="14" t="s">
         <v>8</v>
       </c>
@@ -995,7 +989,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G24" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1018,21 +1012,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="C1:K1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/Web/static/reports/AtlasTour_InvoiceTemplate.xlsx
+++ b/src/Web/static/reports/AtlasTour_InvoiceTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\Web\static\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DD3044-D502-42A9-A095-FEDE461EA5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299B11F0-ECC3-4F96-A8E7-B80FC38AA2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Рахунок-фактура" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Постачальник</t>
   </si>
@@ -79,18 +79,12 @@
     <t>[[Items.Quantity]]</t>
   </si>
   <si>
-    <t>[[Items.Total]]</t>
-  </si>
-  <si>
     <t>[[Items.Price]]</t>
   </si>
   <si>
     <t>Всього на суму: [[TotalWords]]</t>
   </si>
   <si>
-    <t>[[Totals.Amount]]</t>
-  </si>
-  <si>
     <t>[[FooterDetails]]</t>
   </si>
   <si>
@@ -100,24 +94,6 @@
     <t>Сервісний збір</t>
   </si>
   <si>
-    <t>без ПДВ</t>
-  </si>
-  <si>
-    <t>ПДВ</t>
-  </si>
-  <si>
-    <t>Всього</t>
-  </si>
-  <si>
-    <t>До сплати</t>
-  </si>
-  <si>
-    <t>[[Items.ServiceFee0]]</t>
-  </si>
-  <si>
-    <t>[[Items.Vat]]</t>
-  </si>
-  <si>
     <t>[[Items.ServiceFee]]</t>
   </si>
   <si>
@@ -127,10 +103,34 @@
     <t>К-ть</t>
   </si>
   <si>
-    <t>[[Totals.Title]]</t>
-  </si>
-  <si>
     <t>Виписав(ла):  _____________   [[IssuedBy]]</t>
+  </si>
+  <si>
+    <t>Кіл-сть</t>
+  </si>
+  <si>
+    <t>Одиниця виміру</t>
+  </si>
+  <si>
+    <t>послуга</t>
+  </si>
+  <si>
+    <t>[[Total]]</t>
+  </si>
+  <si>
+    <t>Всього:</t>
+  </si>
+  <si>
+    <t>[[TotalDue]]</t>
+  </si>
+  <si>
+    <t>[[Vat]]</t>
+  </si>
+  <si>
+    <t>ПДВ:</t>
+  </si>
+  <si>
+    <t>До сплати:</t>
   </si>
 </sst>
 </file>
@@ -147,16 +147,22 @@
       <u/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -193,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -243,16 +249,59 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -261,18 +310,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -287,16 +355,14 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -308,62 +374,21 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -377,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -394,12 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -415,74 +434,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -765,263 +802,295 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5" style="18" customWidth="1"/>
+    <col min="2" max="3" width="17" style="18" customWidth="1"/>
+    <col min="4" max="4" width="4" style="18" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" style="18" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="2" style="18" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="11" style="18" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="12" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-    </row>
-    <row r="2" spans="1:11" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+    </row>
+    <row r="2" spans="1:11" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:11" ht="25.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-    </row>
-    <row r="13" spans="1:11" s="11" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="13" spans="1:11" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="29"/>
+        <v>22</v>
+      </c>
+      <c r="C13" s="30"/>
       <c r="D13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="31" t="s">
-        <v>34</v>
+      <c r="E13" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="30"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="G14" s="34"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="39"/>
+    </row>
+    <row r="15" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="26"/>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="G15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="4"/>
-      <c r="J16" s="7" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="J17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K17" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="J18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G24" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="28" spans="1:11" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G24" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="F13:F14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:C14"/>
